--- a/MY VERSION/GA_for_JSP/JSP_10x10.xlsx
+++ b/MY VERSION/GA_for_JSP/JSP_10x10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\MY VERSION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\MY VERSION\GA_for_JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7668" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>O1</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>O10</t>
-  </si>
-  <si>
-    <t>12 </t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -760,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -881,8 +878,8 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+      <c r="G4" s="1">
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <v>89</v>
@@ -1121,5 +1118,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>